--- a/サンプルプロジェクト/images/work.xlsx
+++ b/サンプルプロジェクト/images/work.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E7C17F-EA83-4549-A45F-79D2E65830D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成イメージ" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,6 +86,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -106,7 +110,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -161,7 +171,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -216,7 +232,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -271,7 +293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -378,7 +406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2"/>
+        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -464,7 +498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -557,7 +597,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -664,7 +710,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="41" idx="2"/>
@@ -721,7 +773,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="1"/>
           <a:endCxn id="3" idx="4"/>
@@ -776,7 +834,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="0"/>
           <a:endCxn id="3" idx="3"/>
@@ -826,7 +890,13 @@
     <xdr:ext cx="1569660" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -886,7 +956,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="フローチャート : 磁気ディスク 38"/>
+        <xdr:cNvPr id="39" name="フローチャート : 磁気ディスク 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -965,7 +1041,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1079,7 +1161,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1134,7 +1222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1187,7 +1281,13 @@
     <xdr:ext cx="1107996" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1242,7 +1342,13 @@
     <xdr:ext cx="821956" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1304,7 +1410,13 @@
     <xdr:ext cx="821956" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1366,7 +1478,13 @@
     <xdr:ext cx="821956" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1433,7 +1551,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="0"/>
           <a:endCxn id="39" idx="3"/>
@@ -1483,7 +1607,13 @@
     <xdr:ext cx="821956" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1550,7 +1680,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="1"/>
           <a:endCxn id="39" idx="4"/>
@@ -1605,7 +1741,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="2"/>
@@ -1655,7 +1797,13 @@
     <xdr:ext cx="1308243" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1733,7 +1881,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="円/楕円 71"/>
+        <xdr:cNvPr id="72" name="円/楕円 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1787,7 +1941,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1832,7 +1992,13 @@
     <xdr:ext cx="1419225" cy="542456"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1900,7 +2066,13 @@
     <xdr:ext cx="806823" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="テキスト ボックス 76"/>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1965,7 +2137,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="グループ化 44"/>
+        <xdr:cNvPr id="45" name="グループ化 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1978,7 +2156,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="26" name="グループ化 25"/>
+          <xdr:cNvPr id="26" name="グループ化 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1991,7 +2175,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="図 1" descr="パソコンを使う男性会社員のイラスト"/>
+            <xdr:cNvPr id="2" name="図 1" descr="パソコンを使う男性会社員のイラスト">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2031,7 +2221,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2079,7 +2275,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="27" name="グループ化 26"/>
+          <xdr:cNvPr id="27" name="グループ化 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2092,7 +2294,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="図 2" descr="パソコンを使う男性のイラスト"/>
+            <xdr:cNvPr id="3" name="図 2" descr="パソコンを使う男性のイラスト">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2132,7 +2340,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2180,7 +2394,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="40" name="グループ化 39"/>
+          <xdr:cNvPr id="40" name="グループ化 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2193,7 +2413,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="図 3" descr="サーバーのイラスト（1台）"/>
+            <xdr:cNvPr id="4" name="図 3" descr="サーバーのイラスト（1台）">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2233,7 +2459,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2281,7 +2513,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="グループ化 12"/>
+          <xdr:cNvPr id="13" name="グループ化 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2294,7 +2532,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+            <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2326,7 +2570,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2374,7 +2624,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="14" name="グループ化 13"/>
+          <xdr:cNvPr id="14" name="グループ化 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2387,7 +2643,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+            <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2419,7 +2681,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2467,7 +2735,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="グループ化 19"/>
+          <xdr:cNvPr id="20" name="グループ化 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2480,7 +2754,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+            <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2512,7 +2792,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+            <xdr:cNvPr id="22" name="テキスト ボックス 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2560,7 +2846,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="23" name="グループ化 22"/>
+          <xdr:cNvPr id="23" name="グループ化 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2573,7 +2865,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+            <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2605,7 +2903,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2653,7 +2957,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="28" name="グループ化 27"/>
+          <xdr:cNvPr id="28" name="グループ化 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2666,7 +2976,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+            <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2698,7 +3014,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+            <xdr:cNvPr id="30" name="テキスト ボックス 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2746,7 +3068,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="グループ化 30"/>
+          <xdr:cNvPr id="31" name="グループ化 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2759,7 +3087,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+            <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2792,7 +3126,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+            <xdr:cNvPr id="33" name="テキスト ボックス 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2840,7 +3180,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvPr id="34" name="グループ化 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2853,7 +3199,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+            <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2886,7 +3238,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+            <xdr:cNvPr id="36" name="テキスト ボックス 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2934,7 +3292,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="37" name="グループ化 36"/>
+          <xdr:cNvPr id="37" name="グループ化 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2947,7 +3311,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+            <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2980,7 +3350,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+            <xdr:cNvPr id="39" name="テキスト ボックス 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3028,7 +3404,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="41" name="グループ化 40"/>
+          <xdr:cNvPr id="41" name="グループ化 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3041,7 +3423,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+            <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -3073,7 +3461,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+            <xdr:cNvPr id="43" name="テキスト ボックス 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3126,7 +3520,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3168,7 +3562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3201,9 +3595,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3236,6 +3647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3411,10 +3839,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A32:B32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3429,22 +3857,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>